--- a/src/Backend/Integration/batchresults.xlsx
+++ b/src/Backend/Integration/batchresults.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
   <si>
     <t>path</t>
   </si>
@@ -55,7 +55,7 @@
     <t>Host</t>
   </si>
   <si>
-    <t>src/Backend/Integration/MDRKH001final.pdf</t>
+    <t>src/Backend/Integration/MDRRW014dfr.pdf</t>
   </si>
   <si>
     <t>Rwanda</t>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Rwanda Red Cross Society</t>
-  </si>
-  <si>
-    <t>src/Backend/Integration/MDRRW014dfr.pdf</t>
   </si>
 </sst>
 </file>
@@ -452,13 +449,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,202 +495,127 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="N2" t="s">
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2">
+        <v>675</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="N3" t="s">
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
       </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3">
+        <v>675</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="N4" t="s">
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="N5" t="s">
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="N6" t="s">
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="N7" t="s">
+      <c r="F4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="N8" t="s">
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="N9" t="s">
+      <c r="H4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="N10" t="s">
+      <c r="I4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="N11" t="s">
+      <c r="J4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="N12" t="s">
+      <c r="K4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="N13" t="s">
+      <c r="L4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="N14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="N15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="N16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="14:14">
-      <c r="N17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="14:14">
-      <c r="N18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="14:14">
-      <c r="N19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="14:14">
-      <c r="N20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="14:14">
-      <c r="N21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="14:14">
-      <c r="N22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="14:14">
-      <c r="N23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="14:14">
-      <c r="N24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="14:14">
-      <c r="N25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="14:14">
-      <c r="N26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="14:14">
-      <c r="N27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="14:14">
-      <c r="N28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="14:14">
-      <c r="N29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="14:14">
-      <c r="N30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="14:14">
-      <c r="N31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="14:14">
-      <c r="N32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="14:14">
-      <c r="N33" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="14:14">
-      <c r="N34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="14:14">
-      <c r="N35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="14:14">
-      <c r="N36" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="14:14">
-      <c r="N37" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="14:14">
-      <c r="N38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="14:14">
-      <c r="N39" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="14:14">
-      <c r="N40" t="s">
+      <c r="M4" t="s">
         <v>25</v>
       </c>
     </row>

--- a/src/Backend/Integration/batchresults.xlsx
+++ b/src/Backend/Integration/batchresults.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaynb\Documents\COMP0016-Team-3\src\Backend\Integration\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF958B4F-7DD2-4A0E-B3A3-216F363D7882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>path</t>
   </si>
@@ -58,47 +64,122 @@
     <t>src/Backend/Integration/MDRRW014dfr.pdf</t>
   </si>
   <si>
+    <t>sampledocs\MDRUG040efr.pdf</t>
+  </si>
+  <si>
+    <t>sampledocs/MDRJM004dfr.pdf</t>
+  </si>
+  <si>
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Democratic Republic 
+of Congo</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
     <t>RWA</t>
   </si>
   <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>HAI</t>
+  </si>
+  <si>
     <t xml:space="preserve">20RWA001 </t>
   </si>
   <si>
+    <t xml:space="preserve">20COD903 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t xml:space="preserve">20R053WA005053 </t>
   </si>
   <si>
+    <t xml:space="preserve">20COD502010 </t>
+  </si>
+  <si>
     <t>11 July 2017</t>
   </si>
   <si>
+    <t>17 January 2018</t>
+  </si>
+  <si>
+    <t>1 October 2016</t>
+  </si>
+  <si>
     <t>01 September 2017</t>
   </si>
   <si>
-    <t>675</t>
+    <t>31 December 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+DREF Operation Final Report</t>
+  </si>
+  <si>
+    <t>48,500</t>
+  </si>
+  <si>
+    <t>100,000 to  
+150,000 persons</t>
   </si>
   <si>
     <t>811 households</t>
   </si>
   <si>
+    <t>18,000</t>
+  </si>
+  <si>
+    <t>524 families</t>
+  </si>
+  <si>
     <t>ST-2017 -000035 -RWA</t>
   </si>
   <si>
+    <t>EP-2018 -000021 -UGA</t>
+  </si>
+  <si>
+    <t>Category 5</t>
+  </si>
+  <si>
     <t>MDRRW014</t>
   </si>
   <si>
+    <t>Emergency Appeal</t>
+  </si>
+  <si>
+    <t>MDRJM004</t>
+  </si>
+  <si>
     <t>CHF 49,122</t>
   </si>
   <si>
+    <t>CHF 3,200,000</t>
+  </si>
+  <si>
+    <t>130,149 Swiss francs</t>
+  </si>
+  <si>
     <t>Rwanda Red Cross Society</t>
+  </si>
+  <si>
+    <t>Uganda Red Cross Society</t>
+  </si>
+  <si>
+    <t>The Jamaica Red Cross</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +242,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -207,7 +296,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -239,9 +328,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -273,6 +380,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -448,14 +573,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="4" max="4" width="15.68359375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,127 +624,127 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H2">
         <v>675</v>
       </c>
       <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="M2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3">
-        <v>675</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="M3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="L4" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="M4" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/src/Backend/Integration/batchresults.xlsx
+++ b/src/Backend/Integration/batchresults.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaynb\Documents\COMP0016-Team-3\src\Backend\Integration\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF958B4F-7DD2-4A0E-B3A3-216F363D7882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>path</t>
   </si>
@@ -96,6 +90,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20BRB002 </t>
   </si>
   <si>
     <t xml:space="preserve">20R053WA005053 </t>
@@ -178,8 +175,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,14 +239,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -296,7 +285,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -328,27 +317,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -380,24 +351,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -573,17 +526,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="4" max="4" width="15.68359375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,7 +574,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -638,34 +588,34 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2">
         <v>675</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -679,34 +629,34 @@
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -723,28 +673,69 @@
         <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M4" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/src/Backend/Integration/batchresults.xlsx
+++ b/src/Backend/Integration/batchresults.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaynb\Documents\COMP0016-Team-3\src\Backend\Integration\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BB1E1C-1192-4256-80DC-E0B793DE4729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
   <si>
     <t>path</t>
   </si>
@@ -62,6 +68,12 @@
   </si>
   <si>
     <t>sampledocs/MDRJM004dfr.pdf</t>
+  </si>
+  <si>
+    <t>sampledocs/MDRMG015dfr.pdf</t>
+  </si>
+  <si>
+    <t>sampledocs/MDRMM008FR.pdf</t>
   </si>
   <si>
     <t>Rwanda</t>
@@ -74,6 +86,12 @@
     <t>Haiti</t>
   </si>
   <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Cyclone Mora</t>
+  </si>
+  <si>
     <t>RWA</t>
   </si>
   <si>
@@ -83,6 +101,12 @@
     <t>HAI</t>
   </si>
   <si>
+    <t>MAD</t>
+  </si>
+  <si>
+    <t>COM</t>
+  </si>
+  <si>
     <t xml:space="preserve">20RWA001 </t>
   </si>
   <si>
@@ -92,7 +116,13 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">20BRB002 </t>
+    <t xml:space="preserve"> 20JAM003 20BRB002 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20LUX003 20MDG041 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20COM003 20COM001 20COM002 20COM002 20COM003 20COM003 20COM003 20COM003 20COM001 20COM001 </t>
   </si>
   <si>
     <t xml:space="preserve">20R053WA005053 </t>
@@ -101,6 +131,9 @@
     <t xml:space="preserve">20COD502010 </t>
   </si>
   <si>
+    <t xml:space="preserve"> 20USA018155 </t>
+  </si>
+  <si>
     <t>11 July 2017</t>
   </si>
   <si>
@@ -108,6 +141,12 @@
   </si>
   <si>
     <t>1 October 2016</t>
+  </si>
+  <si>
+    <t>08 December 20 19</t>
+  </si>
+  <si>
+    <t>20 January 2017</t>
   </si>
   <si>
     <t>01 September 2017</t>
@@ -120,6 +159,12 @@
 DREF Operation Final Report</t>
   </si>
   <si>
+    <t>07 March 2020</t>
+  </si>
+  <si>
+    <t>19 July 2017</t>
+  </si>
+  <si>
     <t>48,500</t>
   </si>
   <si>
@@ -127,6 +172,12 @@
 150,000 persons</t>
   </si>
   <si>
+    <t>2,996</t>
+  </si>
+  <si>
+    <t>120,000</t>
+  </si>
+  <si>
     <t>811 households</t>
   </si>
   <si>
@@ -136,6 +187,12 @@
     <t>524 families</t>
   </si>
   <si>
+    <t>2,467</t>
+  </si>
+  <si>
+    <t>1,000</t>
+  </si>
+  <si>
     <t>ST-2017 -000035 -RWA</t>
   </si>
   <si>
@@ -145,6 +202,12 @@
     <t>Category 5</t>
   </si>
   <si>
+    <t>TC-2019 -000164 -MDG</t>
+  </si>
+  <si>
+    <t>MDRMM008</t>
+  </si>
+  <si>
     <t>MDRRW014</t>
   </si>
   <si>
@@ -154,6 +217,12 @@
     <t>MDRJM004</t>
   </si>
   <si>
+    <t>MDRMG015</t>
+  </si>
+  <si>
+    <t>DREF</t>
+  </si>
+  <si>
     <t>CHF 49,122</t>
   </si>
   <si>
@@ -163,6 +232,12 @@
     <t>130,149 Swiss francs</t>
   </si>
   <si>
+    <t>CHF 146,491</t>
+  </si>
+  <si>
+    <t>CHF 69,653</t>
+  </si>
+  <si>
     <t>Rwanda Red Cross Society</t>
   </si>
   <si>
@@ -170,13 +245,19 @@
   </si>
   <si>
     <t>The Jamaica Red Cross</t>
+  </si>
+  <si>
+    <t>Malagasy Red Cross Society</t>
+  </si>
+  <si>
+    <t>Myanma r Red Cross Society</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,6 +320,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -285,7 +374,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -317,9 +406,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -351,6 +458,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -526,14 +651,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="35.734375" customWidth="1"/>
+    <col min="4" max="4" width="35.89453125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,168 +705,209 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>675</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="K2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="L2" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="M2" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="M3" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
         <v>30</v>
       </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="F6" t="s">
         <v>41</v>
       </c>
-      <c r="K4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" t="s">
-        <v>50</v>
+      <c r="I6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/src/Backend/Integration/batchresults.xlsx
+++ b/src/Backend/Integration/batchresults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaynb\Documents\COMP0016-Team-3\src\Backend\Integration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BB1E1C-1192-4256-80DC-E0B793DE4729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD98FDC-554C-46C2-8080-2FAD708E1901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="219">
   <si>
     <t>path</t>
   </si>
@@ -74,6 +74,42 @@
   </si>
   <si>
     <t>sampledocs/MDRMM008FR.pdf</t>
+  </si>
+  <si>
+    <t>sampledocs/MDRMY005dfr.pdf</t>
+  </si>
+  <si>
+    <t>sampledocs/MDRTZ027dfr.pdf</t>
+  </si>
+  <si>
+    <t>sampledocs/MDRVC003dfr.pdf</t>
+  </si>
+  <si>
+    <t>sampledocs/NigeriaElectionPreparednessFinalReport.01.09 (1).pdf</t>
+  </si>
+  <si>
+    <t>sampledocs/MDR42005fr.pdf</t>
+  </si>
+  <si>
+    <t>sampledocs/MDRAM005dfr.pdf</t>
+  </si>
+  <si>
+    <t>sampledocs/MDRCR016fr.pdf</t>
+  </si>
+  <si>
+    <t>sampledocs/MDRLB007dfr.pdf</t>
+  </si>
+  <si>
+    <t>sampledocs/MDRMW013dfr.pdf</t>
+  </si>
+  <si>
+    <t>sampledocs/MDRRU021dfr.pdf</t>
+  </si>
+  <si>
+    <t>sampledocs/MDRTJ026dfr.pdf</t>
+  </si>
+  <si>
+    <t>sampledocs/MDRTJ029dfr.pdf</t>
   </si>
   <si>
     <t>Rwanda</t>
@@ -92,6 +128,40 @@
     <t>Cyclone Mora</t>
   </si>
   <si>
+    <t>Peninsular Malaysia</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Caribbean</t>
+  </si>
+  <si>
+    <t>Nigeria Elections Preparedness</t>
+  </si>
+  <si>
+    <t>Save the 
+Children</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
     <t>RWA</t>
   </si>
   <si>
@@ -107,22 +177,73 @@
     <t>COM</t>
   </si>
   <si>
+    <t>PRY</t>
+  </si>
+  <si>
+    <t>TUN</t>
+  </si>
+  <si>
+    <t>HRV</t>
+  </si>
+  <si>
+    <t>NGA</t>
+  </si>
+  <si>
+    <t>VCT</t>
+  </si>
+  <si>
+    <t>ARM</t>
+  </si>
+  <si>
+    <t>COS</t>
+  </si>
+  <si>
+    <t>LEB</t>
+  </si>
+  <si>
+    <t>MLW</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>TJK</t>
+  </si>
+  <si>
     <t xml:space="preserve">20RWA001 </t>
   </si>
   <si>
     <t xml:space="preserve">20COD903 </t>
   </si>
   <si>
+    <t xml:space="preserve"> 20JAM003 20BRB002 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20LUX003 20MDG041 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20COM003 20COM001 20COM002 20COM002 20COM003 20COM003 20COM003 20COM003 20COM001 20COM001 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20BWA001 20MYS008 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20TUN993 20LUX003 20TUN007 20TUN011 20TZA018 20TZA008 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20HRV017 20HRV021 20HRV008 20HRV011 20HRV002 20HRV002 20HRV008 20HRV001 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20LUX003 20NGA026 20NGA027 20NGA023 20NGA025 20NGA014 20NGA027 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20VCT002 20VCT005 20GRD007 20VCT005 20VCT002 20VCT001 </t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve"> 20JAM003 20BRB002 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20LUX003 20MDG041 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20COM003 20COM001 20COM002 20COM002 20COM003 20COM003 20COM003 20COM003 20COM001 20COM001 </t>
+    <t xml:space="preserve"> 20LUX003 </t>
   </si>
   <si>
     <t xml:space="preserve">20R053WA005053 </t>
@@ -134,6 +255,36 @@
     <t xml:space="preserve"> 20USA018155 </t>
   </si>
   <si>
+    <t xml:space="preserve"> 21PRY005003 21PRY011001 21PRY001011 21PRY002003 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20TUN998288 20TUN000310 20TUN009408 20TUN998297 20TUN014467 20TUN003337 20TUN008390 21IND007018 20TUN002334 20TUN006387 20USA018155 20TUN014467 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20HRV014001 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20NGA008005 20NGA024002 20NGA027006 20NGA002001 20NGA029012 20NGA004012 20NGA019006 20NGA022002 20NGA002014 20NGA027012 20USA018155 20NGA032016 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21GTM001001 20DMA002001 22MEX032041 22MEX019013 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20ARM006063 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20MWI001002 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20RUS007005 20RUS005009 20RUS008013 20RUS005009 20RUS006004 20RUS003001 20RUS008011 20RUS003006 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21TJK004011 21TJK004007 21TJK002006 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21TJK003008 21TJK003009 21TJK002005 21TJK001012 21TJK001001 </t>
+  </si>
+  <si>
     <t>11 July 2017</t>
   </si>
   <si>
@@ -147,6 +298,42 @@
   </si>
   <si>
     <t>20 January 2017</t>
+  </si>
+  <si>
+    <t>4 January 2021</t>
+  </si>
+  <si>
+    <t>07 May 2020</t>
+  </si>
+  <si>
+    <t>29 Novembe r 2016</t>
+  </si>
+  <si>
+    <t>23 January 2019</t>
+  </si>
+  <si>
+    <t>18 September 2019</t>
+  </si>
+  <si>
+    <t>10 July 2019</t>
+  </si>
+  <si>
+    <t>11 October 2017</t>
+  </si>
+  <si>
+    <t>9 June 2019</t>
+  </si>
+  <si>
+    <t>3 May 2017</t>
+  </si>
+  <si>
+    <t>21 May 2017</t>
+  </si>
+  <si>
+    <t>27 June 2017</t>
+  </si>
+  <si>
+    <t>28 May 2020</t>
   </si>
   <si>
     <t>01 September 2017</t>
@@ -165,6 +352,42 @@
     <t>19 July 2017</t>
   </si>
   <si>
+    <t>3 1 May 2021</t>
+  </si>
+  <si>
+    <t>30 September 2020</t>
+  </si>
+  <si>
+    <t>13 March 2017</t>
+  </si>
+  <si>
+    <t>23 April 2019</t>
+  </si>
+  <si>
+    <t>18 March 2021</t>
+  </si>
+  <si>
+    <t>10 October  2019</t>
+  </si>
+  <si>
+    <t>11 October 2018</t>
+  </si>
+  <si>
+    <t>15 Au gust 2019</t>
+  </si>
+  <si>
+    <t>3 October 2017</t>
+  </si>
+  <si>
+    <t>21 September 2017</t>
+  </si>
+  <si>
+    <t>27 September 2017</t>
+  </si>
+  <si>
+    <t>31 August 2020</t>
+  </si>
+  <si>
     <t>48,500</t>
   </si>
   <si>
@@ -178,6 +401,42 @@
     <t>120,000</t>
   </si>
   <si>
+    <t>23,776</t>
+  </si>
+  <si>
+    <t>19,323</t>
+  </si>
+  <si>
+    <t>25,000</t>
+  </si>
+  <si>
+    <t>400,000</t>
+  </si>
+  <si>
+    <t>1,250,000</t>
+  </si>
+  <si>
+    <t>3,900 households</t>
+  </si>
+  <si>
+    <t>509,000</t>
+  </si>
+  <si>
+    <t>20,000</t>
+  </si>
+  <si>
+    <t>55,921</t>
+  </si>
+  <si>
+    <t>15,721</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>1,690</t>
+  </si>
+  <si>
     <t>811 households</t>
   </si>
   <si>
@@ -193,6 +452,44 @@
     <t>1,000</t>
   </si>
   <si>
+    <t>2, 996</t>
+  </si>
+  <si>
+    <t>11,734</t>
+  </si>
+  <si>
+    <t>400 families</t>
+  </si>
+  <si>
+    <t>1,485</t>
+  </si>
+  <si>
+    <t>599,164</t>
+  </si>
+  <si>
+    <t>4,606</t>
+  </si>
+  <si>
+    <t>24,000</t>
+  </si>
+  <si>
+    <t>3,000</t>
+  </si>
+  <si>
+    <t>10,750</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+4,500</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+83 most -affected families</t>
+  </si>
+  <si>
+    <t>2,690</t>
+  </si>
+  <si>
     <t>ST-2017 -000035 -RWA</t>
   </si>
   <si>
@@ -208,6 +505,39 @@
     <t>MDRMM008</t>
   </si>
   <si>
+    <t>FL-2021 -000001 -MYS</t>
+  </si>
+  <si>
+    <t>FL-2020 -000125 -TZA</t>
+  </si>
+  <si>
+    <t>FL-2016 -000130 -VCT</t>
+  </si>
+  <si>
+    <t>2019 -000001 -NGA</t>
+  </si>
+  <si>
+    <t>OT-2019 -000078 -ARM</t>
+  </si>
+  <si>
+    <t>FL-2017 -000151 -CRI</t>
+  </si>
+  <si>
+    <t>CE-2019-000063-LBN</t>
+  </si>
+  <si>
+    <t>FL-2017 -000090 -MW1</t>
+  </si>
+  <si>
+    <t>FL-2017 -000052 -RUS</t>
+  </si>
+  <si>
+    <t>FL-2017 -000079 -TJK</t>
+  </si>
+  <si>
+    <t>FL-2020 -000138-TJK</t>
+  </si>
+  <si>
     <t>MDRRW014</t>
   </si>
   <si>
@@ -223,6 +553,43 @@
     <t>DREF</t>
   </si>
   <si>
+    <t>MDRMY005</t>
+  </si>
+  <si>
+    <t>MDRTZ027</t>
+  </si>
+  <si>
+    <t>MDRVC003</t>
+  </si>
+  <si>
+    <t>MDRNG026</t>
+  </si>
+  <si>
+    <t>The Emergency Appeal</t>
+  </si>
+  <si>
+    <t>MDR AM005</t>
+  </si>
+  <si>
+    <t>MDRCR016</t>
+  </si>
+  <si>
+    <t>MDRLB007</t>
+  </si>
+  <si>
+    <t>MDRMW013</t>
+  </si>
+  <si>
+    <t>MDRRU021</t>
+  </si>
+  <si>
+    <t>MDRTJ026</t>
+  </si>
+  <si>
+    <t>relief 
+operations</t>
+  </si>
+  <si>
     <t>CHF 49,122</t>
   </si>
   <si>
@@ -238,6 +605,42 @@
     <t>CHF 69,653</t>
   </si>
   <si>
+    <t>CHF 324,0 47</t>
+  </si>
+  <si>
+    <t>CHF 280,512</t>
+  </si>
+  <si>
+    <t>155,905 Swiss francs</t>
+  </si>
+  <si>
+    <t>CHF 284,651</t>
+  </si>
+  <si>
+    <t>2,900,000 Swiss francs</t>
+  </si>
+  <si>
+    <t>CHF 344,501</t>
+  </si>
+  <si>
+    <t>1,184,614 Swiss Francs</t>
+  </si>
+  <si>
+    <t>CHF 301,088</t>
+  </si>
+  <si>
+    <t>CHF 223,930</t>
+  </si>
+  <si>
+    <t>295,697 CHF</t>
+  </si>
+  <si>
+    <t>51,555 CHF</t>
+  </si>
+  <si>
+    <t>CHF 1 70,820</t>
+  </si>
+  <si>
     <t>Rwanda Red Cross Society</t>
   </si>
   <si>
@@ -251,6 +654,37 @@
   </si>
   <si>
     <t>Myanma r Red Cross Society</t>
+  </si>
+  <si>
+    <t>Malaysian Red Crescent Society</t>
+  </si>
+  <si>
+    <t>The National Society’s headquarters and 10 branches</t>
+  </si>
+  <si>
+    <t>Nigerian Red Cross Society</t>
+  </si>
+  <si>
+    <t>Guatemala, Honduras, El 
+Salvador, Nicaragua and Costa Rica</t>
+  </si>
+  <si>
+    <t>Armenian Red Cross Society</t>
+  </si>
+  <si>
+    <t>Costa Rican Red Cross</t>
+  </si>
+  <si>
+    <t>Leban ese Red Cross</t>
+  </si>
+  <si>
+    <t>Malawi Red Cross</t>
+  </si>
+  <si>
+    <t>The Russian Red Cross Society</t>
+  </si>
+  <si>
+    <t>Red Crescent Society of Tajikistan</t>
   </si>
 </sst>
 </file>
@@ -652,16 +1086,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="35.734375" customWidth="1"/>
-    <col min="4" max="4" width="35.89453125" customWidth="1"/>
+    <col min="4" max="4" width="20.62890625" customWidth="1"/>
+    <col min="5" max="5" width="21.47265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -710,40 +1142,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="H2">
         <v>675</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>154</v>
       </c>
       <c r="K2" t="s">
-        <v>61</v>
+        <v>170</v>
       </c>
       <c r="L2" t="s">
-        <v>66</v>
+        <v>187</v>
       </c>
       <c r="M2" t="s">
-        <v>71</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -751,40 +1183,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>155</v>
       </c>
       <c r="K3" t="s">
-        <v>62</v>
+        <v>171</v>
       </c>
       <c r="L3" t="s">
-        <v>67</v>
+        <v>188</v>
       </c>
       <c r="M3" t="s">
-        <v>72</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -792,40 +1224,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>156</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>172</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>189</v>
       </c>
       <c r="M4" t="s">
-        <v>73</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -833,40 +1265,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="H5" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="I5" t="s">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
+        <v>157</v>
       </c>
       <c r="K5" t="s">
-        <v>64</v>
+        <v>173</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>190</v>
       </c>
       <c r="M5" t="s">
-        <v>74</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -874,40 +1306,532 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I6" t="s">
+        <v>141</v>
+      </c>
+      <c r="J6" t="s">
+        <v>158</v>
+      </c>
+      <c r="K6" t="s">
+        <v>174</v>
+      </c>
+      <c r="L6" t="s">
+        <v>191</v>
+      </c>
+      <c r="M6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I7" t="s">
+        <v>142</v>
+      </c>
+      <c r="J7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L7" t="s">
+        <v>192</v>
+      </c>
+      <c r="M7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I8" t="s">
+        <v>143</v>
+      </c>
+      <c r="J8" t="s">
+        <v>160</v>
+      </c>
+      <c r="K8" t="s">
+        <v>176</v>
+      </c>
+      <c r="L8" t="s">
+        <v>193</v>
+      </c>
+      <c r="M8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" t="s">
+        <v>127</v>
+      </c>
+      <c r="I9" t="s">
+        <v>144</v>
+      </c>
+      <c r="J9" t="s">
+        <v>161</v>
+      </c>
+      <c r="K9" t="s">
+        <v>177</v>
+      </c>
+      <c r="L9" t="s">
+        <v>194</v>
+      </c>
+      <c r="M9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H10" t="s">
+        <v>128</v>
+      </c>
+      <c r="I10" t="s">
+        <v>145</v>
+      </c>
+      <c r="J10" t="s">
+        <v>162</v>
+      </c>
+      <c r="K10" t="s">
+        <v>178</v>
+      </c>
+      <c r="L10" t="s">
+        <v>195</v>
+      </c>
+      <c r="M10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" t="s">
+        <v>113</v>
+      </c>
+      <c r="H11" t="s">
+        <v>129</v>
+      </c>
+      <c r="I11" t="s">
+        <v>146</v>
+      </c>
+      <c r="J11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" t="s">
+        <v>179</v>
+      </c>
+      <c r="L11" t="s">
+        <v>196</v>
+      </c>
+      <c r="M11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H12" t="s">
+        <v>130</v>
+      </c>
+      <c r="I12" t="s">
+        <v>147</v>
+      </c>
+      <c r="J12" t="s">
+        <v>163</v>
+      </c>
+      <c r="K12" t="s">
+        <v>180</v>
+      </c>
+      <c r="L12" t="s">
+        <v>197</v>
+      </c>
+      <c r="M12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" t="s">
+        <v>131</v>
+      </c>
+      <c r="I13" t="s">
+        <v>148</v>
+      </c>
+      <c r="J13" t="s">
+        <v>164</v>
+      </c>
+      <c r="K13" t="s">
+        <v>181</v>
+      </c>
+      <c r="L13" t="s">
+        <v>198</v>
+      </c>
+      <c r="M13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" t="s">
+        <v>116</v>
+      </c>
+      <c r="H14" t="s">
+        <v>132</v>
+      </c>
+      <c r="I14" t="s">
+        <v>149</v>
+      </c>
+      <c r="J14" t="s">
+        <v>165</v>
+      </c>
+      <c r="K14" t="s">
+        <v>182</v>
+      </c>
+      <c r="L14" t="s">
+        <v>199</v>
+      </c>
+      <c r="M14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H15" t="s">
+        <v>133</v>
+      </c>
+      <c r="I15" t="s">
+        <v>150</v>
+      </c>
+      <c r="J15" t="s">
+        <v>166</v>
+      </c>
+      <c r="K15" t="s">
+        <v>183</v>
+      </c>
+      <c r="L15" t="s">
+        <v>200</v>
+      </c>
+      <c r="M15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
         <v>60</v>
       </c>
-      <c r="K6" t="s">
-        <v>65</v>
-      </c>
-      <c r="L6" t="s">
-        <v>70</v>
-      </c>
-      <c r="M6" t="s">
-        <v>75</v>
+      <c r="D16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" t="s">
+        <v>118</v>
+      </c>
+      <c r="H16" t="s">
+        <v>134</v>
+      </c>
+      <c r="I16" t="s">
+        <v>151</v>
+      </c>
+      <c r="J16" t="s">
+        <v>167</v>
+      </c>
+      <c r="K16" t="s">
+        <v>184</v>
+      </c>
+      <c r="L16" t="s">
+        <v>201</v>
+      </c>
+      <c r="M16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" t="s">
+        <v>119</v>
+      </c>
+      <c r="H17" t="s">
+        <v>135</v>
+      </c>
+      <c r="I17" t="s">
+        <v>152</v>
+      </c>
+      <c r="J17" t="s">
+        <v>168</v>
+      </c>
+      <c r="K17" t="s">
+        <v>185</v>
+      </c>
+      <c r="L17" t="s">
+        <v>202</v>
+      </c>
+      <c r="M17" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" t="s">
+        <v>120</v>
+      </c>
+      <c r="H18" t="s">
+        <v>136</v>
+      </c>
+      <c r="I18" t="s">
+        <v>153</v>
+      </c>
+      <c r="J18" t="s">
+        <v>169</v>
+      </c>
+      <c r="K18" t="s">
+        <v>186</v>
+      </c>
+      <c r="L18" t="s">
+        <v>203</v>
+      </c>
+      <c r="M18" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/src/Backend/Integration/batchresults.xlsx
+++ b/src/Backend/Integration/batchresults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaynb\Documents\COMP0016-Team-3\src\Backend\Integration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD98FDC-554C-46C2-8080-2FAD708E1901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51838881-F4D5-46CB-924C-AB5B19D289B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="267">
   <si>
     <t>path</t>
   </si>
@@ -110,6 +110,18 @@
   </si>
   <si>
     <t>sampledocs/MDRTJ029dfr.pdf</t>
+  </si>
+  <si>
+    <t>sampledocs/MDRBR008dfr.pdf</t>
+  </si>
+  <si>
+    <t>sampledocs/MDRCM025dfr1.pdf</t>
+  </si>
+  <si>
+    <t>sampledocs/MDRIN018DREF_final.pdf</t>
+  </si>
+  <si>
+    <t>sampledocs/MDRVN015drefFR.pdf</t>
   </si>
   <si>
     <t>Rwanda</t>
@@ -162,6 +174,18 @@
     <t>Tajikistan</t>
   </si>
   <si>
+    <t>Brazilian Red Cross</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Assam</t>
+  </si>
+  <si>
+    <t>Central Viet Nam</t>
+  </si>
+  <si>
     <t>RWA</t>
   </si>
   <si>
@@ -210,6 +234,18 @@
     <t>TJK</t>
   </si>
   <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>CMR</t>
+  </si>
+  <si>
+    <t>AUT</t>
+  </si>
+  <si>
+    <t>CAF</t>
+  </si>
+  <si>
     <t xml:space="preserve">20RWA001 </t>
   </si>
   <si>
@@ -246,6 +282,15 @@
     <t xml:space="preserve"> 20LUX003 </t>
   </si>
   <si>
+    <t xml:space="preserve"> 20BRA035 20BRA031 20BRA032 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20AUT005 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20VNM401 20VNM403 20VNM407 20VNM411 </t>
+  </si>
+  <si>
     <t xml:space="preserve">20R053WA005053 </t>
   </si>
   <si>
@@ -285,6 +330,15 @@
     <t xml:space="preserve"> 21TJK003008 21TJK003009 21TJK002005 21TJK001012 21TJK001001 </t>
   </si>
   <si>
+    <t xml:space="preserve"> 20BRA053001 20BRA029330 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20AUT003009 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20CAF023003 20VNM409003 20CAF023003 20CAF012003 </t>
+  </si>
+  <si>
     <t>11 July 2017</t>
   </si>
   <si>
@@ -334,6 +388,18 @@
   </si>
   <si>
     <t>28 May 2020</t>
+  </si>
+  <si>
+    <t>19 March 2017</t>
+  </si>
+  <si>
+    <t>21 August 2017</t>
+  </si>
+  <si>
+    <t>28 July 2017</t>
+  </si>
+  <si>
+    <t>25 September  2017</t>
   </si>
   <si>
     <t>01 September 2017</t>
@@ -388,6 +454,18 @@
     <t>31 August 2020</t>
   </si>
   <si>
+    <t>19 August 2017</t>
+  </si>
+  <si>
+    <t>21 November 2017</t>
+  </si>
+  <si>
+    <t>27 November 2017</t>
+  </si>
+  <si>
+    <t>30 November  2017</t>
+  </si>
+  <si>
     <t>48,500</t>
   </si>
   <si>
@@ -437,6 +515,18 @@
     <t>1,690</t>
   </si>
   <si>
+    <t>3,240</t>
+  </si>
+  <si>
+    <t>12, 890</t>
+  </si>
+  <si>
+    <t>1.7 million</t>
+  </si>
+  <si>
+    <t>691,900</t>
+  </si>
+  <si>
     <t>811 households</t>
   </si>
   <si>
@@ -490,6 +580,15 @@
     <t>2,690</t>
   </si>
   <si>
+    <t>26,100</t>
+  </si>
+  <si>
+    <t>18,7191</t>
+  </si>
+  <si>
+    <t>10,776</t>
+  </si>
+  <si>
     <t>ST-2017 -000035 -RWA</t>
   </si>
   <si>
@@ -536,6 +635,18 @@
   </si>
   <si>
     <t>FL-2020 -000138-TJK</t>
+  </si>
+  <si>
+    <t>EP-2017 -000026 -BRA</t>
+  </si>
+  <si>
+    <t>FF-2017 -000122</t>
+  </si>
+  <si>
+    <t>FL-2017 -000064 -IND</t>
+  </si>
+  <si>
+    <t>MDRVN015</t>
   </si>
   <si>
     <t>MDRRW014</t>
@@ -590,6 +701,15 @@
 operations</t>
   </si>
   <si>
+    <t>Glide n°</t>
+  </si>
+  <si>
+    <t>MDR CM025</t>
+  </si>
+  <si>
+    <t>MDRIN018</t>
+  </si>
+  <si>
     <t>CHF 49,122</t>
   </si>
   <si>
@@ -639,6 +759,18 @@
   </si>
   <si>
     <t>CHF 1 70,820</t>
+  </si>
+  <si>
+    <t>200,791 Swiss francs</t>
+  </si>
+  <si>
+    <t>CHF 95 161</t>
+  </si>
+  <si>
+    <t>CHF 323,333</t>
+  </si>
+  <si>
+    <t>CHF 236,580</t>
   </si>
   <si>
     <t>Rwanda Red Cross Society</t>
@@ -685,6 +817,18 @@
   </si>
   <si>
     <t>Red Crescent Society of Tajikistan</t>
+  </si>
+  <si>
+    <t>Presence</t>
+  </si>
+  <si>
+    <t>Cameroon Red Cross</t>
+  </si>
+  <si>
+    <t>Indian  Red Cross Society</t>
+  </si>
+  <si>
+    <t>Vietnam Red Cross Society</t>
   </si>
 </sst>
 </file>
@@ -1086,14 +1230,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="4" max="4" width="20.62890625" customWidth="1"/>
-    <col min="5" max="5" width="21.47265625" customWidth="1"/>
+    <col min="4" max="4" width="15.62890625" customWidth="1"/>
+    <col min="5" max="5" width="22.7890625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1142,40 +1288,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="G2" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="H2">
         <v>675</v>
       </c>
       <c r="I2" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="J2" t="s">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="K2" t="s">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="L2" t="s">
-        <v>187</v>
+        <v>227</v>
       </c>
       <c r="M2" t="s">
-        <v>204</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1183,40 +1329,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="G3" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="H3" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="I3" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="J3" t="s">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="K3" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="L3" t="s">
-        <v>188</v>
+        <v>228</v>
       </c>
       <c r="M3" t="s">
-        <v>205</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1224,40 +1370,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="G4" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="H4" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="I4" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="J4" t="s">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="K4" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="L4" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="M4" t="s">
-        <v>206</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1265,40 +1411,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="G5" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="H5" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="I5" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="J5" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K5" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="L5" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="M5" t="s">
-        <v>207</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1306,40 +1452,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="G6" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="H6" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="I6" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="J6" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="K6" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="L6" t="s">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="M6" t="s">
-        <v>208</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1347,40 +1493,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="G7" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="H7" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="I7" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="J7" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="K7" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="L7" t="s">
-        <v>192</v>
+        <v>232</v>
       </c>
       <c r="M7" t="s">
-        <v>209</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1388,40 +1534,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="G8" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="H8" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="I8" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="J8" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="K8" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="L8" t="s">
-        <v>193</v>
+        <v>233</v>
       </c>
       <c r="M8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1429,40 +1575,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="G9" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="H9" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="I9" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="J9" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="K9" t="s">
-        <v>177</v>
+        <v>214</v>
       </c>
       <c r="L9" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
       <c r="M9" t="s">
-        <v>210</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1470,40 +1616,40 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="H10" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="I10" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="J10" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="K10" t="s">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="L10" t="s">
-        <v>195</v>
+        <v>235</v>
       </c>
       <c r="M10" t="s">
-        <v>211</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1511,40 +1657,40 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E11" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="F11" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="G11" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="H11" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="I11" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="J11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K11" t="s">
-        <v>179</v>
+        <v>216</v>
       </c>
       <c r="L11" t="s">
-        <v>196</v>
+        <v>236</v>
       </c>
       <c r="M11" t="s">
-        <v>212</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1552,40 +1698,40 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="F12" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="G12" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="H12" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="I12" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="J12" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="K12" t="s">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="L12" t="s">
-        <v>197</v>
+        <v>237</v>
       </c>
       <c r="M12" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1593,40 +1739,40 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F13" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="G13" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="H13" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="I13" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="J13" t="s">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="K13" t="s">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="L13" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="M13" t="s">
-        <v>214</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1634,40 +1780,40 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="F14" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="G14" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="H14" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="I14" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="J14" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="K14" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="L14" t="s">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="M14" t="s">
-        <v>215</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1675,40 +1821,40 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="F15" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="G15" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="H15" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="I15" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="J15" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="K15" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="L15" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="M15" t="s">
-        <v>216</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1716,40 +1862,40 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="F16" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="G16" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="H16" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="I16" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="J16" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="K16" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="L16" t="s">
-        <v>201</v>
+        <v>241</v>
       </c>
       <c r="M16" t="s">
-        <v>217</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1757,40 +1903,40 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="F17" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="G17" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="H17" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="I17" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="J17" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="K17" t="s">
-        <v>185</v>
+        <v>222</v>
       </c>
       <c r="L17" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="M17" t="s">
-        <v>218</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1798,40 +1944,204 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" t="s">
+        <v>142</v>
+      </c>
+      <c r="H18" t="s">
+        <v>162</v>
+      </c>
+      <c r="I18" t="s">
+        <v>183</v>
+      </c>
+      <c r="J18" t="s">
+        <v>202</v>
+      </c>
+      <c r="K18" t="s">
+        <v>223</v>
+      </c>
+      <c r="L18" t="s">
+        <v>243</v>
+      </c>
+      <c r="M18" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" t="s">
+        <v>143</v>
+      </c>
+      <c r="H19" t="s">
+        <v>163</v>
+      </c>
+      <c r="I19" t="s">
+        <v>184</v>
+      </c>
+      <c r="J19" t="s">
+        <v>203</v>
+      </c>
+      <c r="K19" t="s">
+        <v>224</v>
+      </c>
+      <c r="L19" t="s">
+        <v>244</v>
+      </c>
+      <c r="M19" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" t="s">
+        <v>144</v>
+      </c>
+      <c r="H20" t="s">
+        <v>164</v>
+      </c>
+      <c r="I20" t="s">
+        <v>185</v>
+      </c>
+      <c r="J20" t="s">
+        <v>204</v>
+      </c>
+      <c r="K20" t="s">
+        <v>225</v>
+      </c>
+      <c r="L20" t="s">
+        <v>245</v>
+      </c>
+      <c r="M20" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
         <v>72</v>
       </c>
-      <c r="E18" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="D21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" t="s">
         <v>103</v>
       </c>
-      <c r="G18" t="s">
-        <v>120</v>
-      </c>
-      <c r="H18" t="s">
-        <v>136</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="F21" t="s">
+        <v>124</v>
+      </c>
+      <c r="G21" t="s">
+        <v>145</v>
+      </c>
+      <c r="H21" t="s">
+        <v>165</v>
+      </c>
+      <c r="I21" t="s">
         <v>153</v>
       </c>
-      <c r="J18" t="s">
-        <v>169</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="J21" t="s">
+        <v>205</v>
+      </c>
+      <c r="K21" t="s">
+        <v>226</v>
+      </c>
+      <c r="L21" t="s">
+        <v>246</v>
+      </c>
+      <c r="M21" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" t="s">
+        <v>146</v>
+      </c>
+      <c r="H22" t="s">
+        <v>166</v>
+      </c>
+      <c r="I22" t="s">
         <v>186</v>
       </c>
-      <c r="L18" t="s">
-        <v>203</v>
-      </c>
-      <c r="M18" t="s">
-        <v>218</v>
+      <c r="J22" t="s">
+        <v>206</v>
+      </c>
+      <c r="K22" t="s">
+        <v>206</v>
+      </c>
+      <c r="L22" t="s">
+        <v>247</v>
+      </c>
+      <c r="M22" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/src/Backend/Integration/batchresults.xlsx
+++ b/src/Backend/Integration/batchresults.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2190,6 +2190,351 @@
         </is>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>C:/Users/0715s/Documents/GitHub Projects/COMP0016-Team-3/MDRKH001final.pdf</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Cambodia</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>CAM</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>late July to October 2007</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>October 2007</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>young children</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>foreign help</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>EP-2007-000099-KHM</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Global Agenda Goal 2</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>CHF 
+140,900</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>C:/Users/0715s/Documents/GitHub Projects/COMP0016-Team-3/src/fr1.pdf</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Haiti</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>HAI</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 20JAM003 20BRB002 </t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1 October 2016</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+DREF Operation Final Report</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>100,000 to  
+150,000 persons</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>524 families</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Category 5</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>MDRJM004</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>130,149 Swiss francs</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>The Jamaica Red Cross</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C:/Users/0715s/Documents/GitHub Projects/COMP0016-Team-3/MDRKH001final.pdf</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Cambodia</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>CAM</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>late July to October 2007</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>October 2007</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>young children</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>foreign help</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>EP-2007-000099-KHM</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Global Agenda Goal 2</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>CHF 
+140,900</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>C:/Users/0715s/Documents/GitHub Projects/COMP0016-Team-3/MDRKH001final.pdf</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Cambodia</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>CAM</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>late July to October 2007</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>October 2007</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>young children</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>foreign help</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>EP-2007-000099-KHM</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Global Agenda Goal 2</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>CHF 
+140,900</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>C:/Users/0715s/Documents/GitHub Projects/COMP0016-Team-3/src/fr1.pdf</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Haiti</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>HAI</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 20JAM003 20BRB002 </t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1 October 2016</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+DREF Operation Final Report</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>100,000 to  
+150,000 persons</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>524 families</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Category 5</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>MDRJM004</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>130,149 Swiss francs</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>The Jamaica Red Cross</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/Backend/Integration/batchresults.xlsx
+++ b/src/Backend/Integration/batchresults.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2535,6 +2535,351 @@
         </is>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>C:/Users/0715s/Documents/GitHub Projects/COMP0016-Team-3/MDRKH001final.pdf</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Cambodia</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>CAM</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>late July to October 2007</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>October 2007</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>young children</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>foreign help</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>EP-2007-000099-KHM</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Global Agenda Goal 2</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>CHF 
+140,900</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>C:/Users/0715s/Documents/GitHub Projects/COMP0016-Team-3/MDRKH001final.pdf</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Cambodia</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>CAM</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>late July to October 2007</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>October 2007</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>young children</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>foreign help</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>EP-2007-000099-KHM</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Global Agenda Goal 2</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>CHF 
+140,900</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>C:/Users/0715s/Documents/GitHub Projects/COMP0016-Team-3/MDRKH001final.pdf</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Cambodia</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>CAM</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>late July to October 2007</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>October 2007</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>young children</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>foreign help</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>EP-2007-000099-KHM</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Global Agenda Goal 2</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>CHF 
+140,900</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>C:/Users/0715s/Documents/GitHub Projects/COMP0016-Team-3/MDRKH001final.pdf</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Cambodia</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>CAM</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>late July to October 2007</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>October 2007</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>young children</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>foreign help</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>EP-2007-000099-KHM</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Global Agenda Goal 2</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>CHF 
+140,900</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>C:/Users/0715s/Documents/GitHub Projects/COMP0016-Team-3/MDRKH001final.pdf</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Cambodia</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>CAM</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>late July to October 2007</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>October 2007</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>young children</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>foreign help</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>EP-2007-000099-KHM</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Global Agenda Goal 2</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>CHF 
+140,900</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/Backend/Integration/batchresults.xlsx
+++ b/src/Backend/Integration/batchresults.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2880,6 +2880,747 @@
         </is>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>C:/Users/0715s/Documents/Test\MDRTZ017pfr.pdf</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Burundi</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>BDI</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 20BDI015 20BDI012 </t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 20BDI014009 20BDI017014 </t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>15 May 2015</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>31 August 2017</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>361,411</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>20,000</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>OT-2015 -000052 -TZA</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>MDRTZ017</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>CHF 5,213,378</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Tanzania Red Cross Society</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>C:/Users/0715s/Documents/GitHub Projects/COMP0016-Team-3/MDRRW014dfr (1).pdf</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Rwanda</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>RWA</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 20RWA005 20RWA005 20RWA001 </t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 20RWA005053 20RWA005053 </t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>11 July 2017</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>01 September 2017</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>811 households</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST-2017 -000035 -RWA</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>MDRRW014</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>CHF 49,122</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Rwanda Red Cross Society</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>C:/Users/0715s/Documents/GitHub Projects/COMP0016-Team-3/MDRRW014dfr (1).pdf</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Rwanda</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>RWA</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 20RWA005 20RWA005 20RWA001 </t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 20RWA005053 20RWA005053 </t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>11 July 2017</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>01 September 2017</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>811 households</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST-2017 -000035 -RWA</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>MDRRW014</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>CHF 49,122</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Rwanda Red Cross Society</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>C:/Users/0715s/Documents/GitHub Projects/COMP0016-Team-3/MDRRW014dfr (1).pdf</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Rwanda</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>RWA</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 20RWA005 20RWA005 20RWA001 </t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 20RWA005053 20RWA005053 </t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>11 July 2017</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>01 September 2017</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>811 households</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST-2017 -000035 -RWA</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>MDRRW014</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>CHF 49,122</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Rwanda Red Cross Society</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>C:/Users/0715s/Documents/GitHub Projects/COMP0016-Team-3/MDRRW014dfr (1).pdf</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Rwanda</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>RWA</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 20RWA005 20RWA005 20RWA001 </t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 20RWA005053 20RWA005053 </t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>11 July 2017</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>01 September 2017</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>811 households</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST-2017 -000035 -RWA</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>MDRRW014</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>CHF 49,122</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Rwanda Red Cross Society</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>C:/Users/0715s/Documents/GitHub Projects/COMP0016-Team-3/MDRRW014dfr (1).pdf</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Rwanda</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>RWA</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 20RWA005 20RWA005 20RWA001 </t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 20RWA005053 20RWA005053 </t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>11 July 2017</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>01 September 2017</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>811 households</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST-2017 -000035 -RWA</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>MDRRW014</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>CHF 49,122</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Rwanda Red Cross Society</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>C:/Users/0715s/Documents/GitHub Projects/COMP0016-Team-3/MDRRW014dfr (1).pdf</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Rwanda</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>RWA</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 20RWA005 20RWA005 20RWA001 </t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 20RWA005053 20RWA005053 </t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>11 July 2017</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>01 September 2017</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>811 households</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST-2017 -000035 -RWA</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>MDRRW014</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>CHF 49,122</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Rwanda Red Cross Society</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>C:/Users/0715s/Documents/GitHub Projects/COMP0016-Team-3/MDRKH001final.pdf</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Cambodia</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>CAM</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>late July to October 2007</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>October 2007</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>young children</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>foreign help</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>EP-2007-000099-KHM</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Global Agenda Goal 2</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>CHF 
+140,900</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>C:/Users/0715s/Documents/GitHub Projects/COMP0016-Team-3/MDRRW014dfr (1).pdf</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Rwanda</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>RWA</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 20RWA005 20RWA005 20RWA001 </t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 20RWA005053 20RWA005053 </t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>11 July 2017</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>01 September 2017</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>811 households</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST-2017 -000035 -RWA</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>MDRRW014</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>CHF 49,122</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Rwanda Red Cross Society</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>C:/Users/0715s/Documents/GitHub Projects/COMP0016-Team-3/MDRKH001final.pdf</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Cambodia</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>CAM</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>late July to October 2007</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>October 2007</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>young children</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>foreign help</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>EP-2007-000099-KHM</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Global Agenda Goal 2</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>CHF 
+140,900</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>C:/Users/0715s/Documents/GitHub Projects/COMP0016-Team-3/MDRRW014dfr (1).pdf</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Rwanda</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>RWA</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 20RWA005 20RWA005 20RWA001 </t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 20RWA005053 20RWA005053 </t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>11 July 2017</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>01 September 2017</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>811 households</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST-2017 -000035 -RWA</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>MDRRW014</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>CHF 49,122</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Rwanda Red Cross Society</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/Backend/Integration/batchresults.xlsx
+++ b/src/Backend/Integration/batchresults.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3621,6 +3621,145 @@
         </is>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>C:/Users/0715s/Documents/Test\MDR42005fr.pdf</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Save the 
+Children</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>VCT</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 20VCT002 20VCT005 20GRD007 20VCT005 20VCT002 </t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 21GTM001001 20DMA002001 22MEX032041 22MEX019013 </t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>18 September 2019</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>18 March 2021</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>1,250,000</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>599,164</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Save the 
+Children</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>The Emergency Appeal</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>2,900,000 Swiss francs</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Guatemala, Honduras, El 
+Salvador, Nicaragua and Costa Rica</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>C:/Users/0715s/Documents/Test\MDR61005fr.pdf</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>West Africa</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>ESH</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 20NGA027 </t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 20GIN006004 20CRI003007 20SEN001001 </t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6 August 2009 to 
+31 August 2010</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>6 August 2009 to 
+31 August 2010</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>738,664</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>738,664</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>CHF 918,517</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>EW/EA)</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>CHF 918,517</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/Backend/Integration/batchresults.xlsx
+++ b/src/Backend/Integration/batchresults.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3760,6 +3760,145 @@
         </is>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>C:/Users/0715s/Documents/Test\MDR42005fr.pdf</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Save the 
+Children</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>VCT</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 20VCT002 20VCT005 20GRD007 20VCT005 20VCT002 </t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 21GTM001001 20DMA002001 22MEX032041 22MEX019013 </t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>18 September 2019</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>18 March 2021</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>1,250,000</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>599,164</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Save the 
+Children</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>The Emergency Appeal</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>2,900,000 Swiss francs</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Guatemala, Honduras, El 
+Salvador, Nicaragua and Costa Rica</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>C:/Users/0715s/Documents/Test\MDR61005fr.pdf</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>West Africa</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>ESH</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 20NGA027 </t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 20GIN006004 20CRI003007 20SEN001001 </t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6 August 2009 to 
+31 August 2010</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>6 August 2009 to 
+31 August 2010</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>738,664</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>738,664</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>CHF 918,517</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>EW/EA)</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>CHF 918,517</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/Backend/Integration/batchresults.xlsx
+++ b/src/Backend/Integration/batchresults.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3899,6 +3899,73 @@
         </is>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>C:/Users/0715s/Documents/GitHub Projects/COMP0016-Team-3/MDRRW014dfr (1).pdf</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Rwanda</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>RWA</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 20RWA005 20RWA005 20RWA001 </t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 20RWA005053 20RWA005053 </t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>11 July 2017</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>01 September 2017</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>811 households</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST-2017 -000035 -RWA</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>MDRRW014</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>CHF 49,122</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Rwanda Red Cross Society</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/Backend/Integration/batchresults.xlsx
+++ b/src/Backend/Integration/batchresults.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3966,6 +3966,211 @@
         </is>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>C:/Users/0715s/Documents/GitHub Projects/COMP0016-Team-3/MDRKH001final.pdf</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Cambodia</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>CAM</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>late July to October 2007</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>October 2007</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>young children</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>foreign help</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>EP-2007-000099-KHM</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Global Agenda Goal 2</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>CHF 
+140,900</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>C:/Users/0715s/Documents/GitHub Projects/COMP0016-Team-3/MDRKH001final.pdf</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Cambodia</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>CAM</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>late July to October 2007</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>October 2007</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>young children</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>foreign help</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>EP-2007-000099-KHM</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Global Agenda Goal 2</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>CHF 
+140,900</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>C:/Users/0715s/Documents/GitHub Projects/COMP0016-Team-3/MDRRW014dfr (1).pdf</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Rwanda</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>RWA</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 20RWA005 20RWA005 20RWA001 </t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 20RWA005053 20RWA005053 </t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>11 July 2017</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>01 September 2017</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>811 households</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST-2017 -000035 -RWA</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>MDRRW014</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>CHF 49,122</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Rwanda Red Cross Society</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
